--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.035948</v>
+        <v>2.402487333333333</v>
       </c>
       <c r="N2">
-        <v>6.107844</v>
+        <v>7.207462</v>
       </c>
       <c r="O2">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503753</v>
       </c>
       <c r="P2">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503754</v>
       </c>
       <c r="Q2">
-        <v>7.482172693037333</v>
+        <v>0.1945430134748889</v>
       </c>
       <c r="R2">
-        <v>67.339554237336</v>
+        <v>1.750887121274</v>
       </c>
       <c r="S2">
-        <v>0.09998907685678936</v>
+        <v>0.002980708940556176</v>
       </c>
       <c r="T2">
-        <v>0.09998907685678936</v>
+        <v>0.002980708940556177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.006793</v>
       </c>
       <c r="O3">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669855</v>
       </c>
       <c r="P3">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669856</v>
       </c>
       <c r="Q3">
-        <v>4.908363273726889</v>
+        <v>0.1081509114567778</v>
       </c>
       <c r="R3">
-        <v>44.17526946354199</v>
+        <v>0.9733582031110001</v>
       </c>
       <c r="S3">
-        <v>0.0655936093368209</v>
+        <v>0.001657044285222441</v>
       </c>
       <c r="T3">
-        <v>0.0655936093368209</v>
+        <v>0.001657044285222441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7667083333333333</v>
+        <v>0.7667083333333334</v>
       </c>
       <c r="N4">
         <v>2.300125</v>
       </c>
       <c r="O4">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="P4">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="Q4">
-        <v>2.817677148527777</v>
+        <v>0.06208471843055557</v>
       </c>
       <c r="R4">
-        <v>25.35909433675</v>
+        <v>0.5587624658750001</v>
       </c>
       <c r="S4">
-        <v>0.03765442853570304</v>
+        <v>0.0009512368087263971</v>
       </c>
       <c r="T4">
-        <v>0.03765442853570304</v>
+        <v>0.0009512368087263974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.035948</v>
+        <v>2.402487333333333</v>
       </c>
       <c r="N5">
-        <v>6.107844</v>
+        <v>7.207462</v>
       </c>
       <c r="O5">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503753</v>
       </c>
       <c r="P5">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503754</v>
       </c>
       <c r="Q5">
-        <v>20.580368142312</v>
+        <v>24.285528794076</v>
       </c>
       <c r="R5">
-        <v>185.223313280808</v>
+        <v>218.569759146684</v>
       </c>
       <c r="S5">
-        <v>0.2750286709952026</v>
+        <v>0.3720929963490077</v>
       </c>
       <c r="T5">
-        <v>0.2750286709952026</v>
+        <v>0.3720929963490077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.006793</v>
       </c>
       <c r="O6">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669855</v>
       </c>
       <c r="P6">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669856</v>
       </c>
       <c r="Q6">
         <v>13.500880999914</v>
@@ -818,10 +818,10 @@
         <v>121.507928999226</v>
       </c>
       <c r="S6">
-        <v>0.1804209396544641</v>
+        <v>0.2068550084787446</v>
       </c>
       <c r="T6">
-        <v>0.1804209396544641</v>
+        <v>0.2068550084787446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7667083333333333</v>
+        <v>0.7667083333333334</v>
       </c>
       <c r="N7">
         <v>2.300125</v>
       </c>
       <c r="O7">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="P7">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="Q7">
         <v>7.750266587250001</v>
       </c>
       <c r="R7">
-        <v>69.75239928525001</v>
+        <v>69.75239928525002</v>
       </c>
       <c r="S7">
-        <v>0.1035717876672751</v>
+        <v>0.1187464329645112</v>
       </c>
       <c r="T7">
-        <v>0.1035717876672751</v>
+        <v>0.1187464329645112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.035948</v>
+        <v>2.402487333333333</v>
       </c>
       <c r="N8">
-        <v>6.107844</v>
+        <v>7.207462</v>
       </c>
       <c r="O8">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503753</v>
       </c>
       <c r="P8">
-        <v>0.4919823674428878</v>
+        <v>0.5333179916503754</v>
       </c>
       <c r="Q8">
-        <v>8.752450870288</v>
+        <v>10.32818733655733</v>
       </c>
       <c r="R8">
-        <v>78.77205783259201</v>
+        <v>92.953686029016</v>
       </c>
       <c r="S8">
-        <v>0.1169646195908958</v>
+        <v>0.1582442863608114</v>
       </c>
       <c r="T8">
-        <v>0.1169646195908958</v>
+        <v>0.1582442863608115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.006793</v>
       </c>
       <c r="O9">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669855</v>
       </c>
       <c r="P9">
-        <v>0.3227442459227168</v>
+        <v>0.2964836714669856</v>
       </c>
       <c r="Q9">
         <v>5.741675602702667</v>
@@ -1004,10 +1004,10 @@
         <v>51.67508042432401</v>
       </c>
       <c r="S9">
-        <v>0.07672969693143178</v>
+        <v>0.08797161870301846</v>
       </c>
       <c r="T9">
-        <v>0.07672969693143178</v>
+        <v>0.08797161870301849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7667083333333333</v>
+        <v>0.7667083333333334</v>
       </c>
       <c r="N10">
         <v>2.300125</v>
       </c>
       <c r="O10">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="P10">
-        <v>0.1852733866343954</v>
+        <v>0.1701983368826391</v>
       </c>
       <c r="Q10">
         <v>3.296045389833334</v>
       </c>
       <c r="R10">
-        <v>29.6644085085</v>
+        <v>29.66440850850001</v>
       </c>
       <c r="S10">
-        <v>0.04404717043141723</v>
+        <v>0.05050066710940156</v>
       </c>
       <c r="T10">
-        <v>0.04404717043141723</v>
+        <v>0.05050066710940157</v>
       </c>
     </row>
   </sheetData>
